--- a/reports/D2/DataDrivenExample.xlsx
+++ b/reports/D2/DataDrivenExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/FAQAS/reports/D2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7880D11-B64E-0444-BB12-982C977B30BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D0352-C4F6-E546-B33C-1DF0C4CD26E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6320" yWindow="-26960" windowWidth="40340" windowHeight="22980" activeTab="1" xr2:uid="{35B636A8-7F45-8B42-9F5B-45805FC800DB}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -705,6 +705,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,8 +1191,8 @@
   </sheetPr>
   <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A91" sqref="A88:XFD91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1552,7 +1553,7 @@
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="41">
         <v>110</v>
       </c>
       <c r="D20" s="3">
@@ -1565,7 +1566,7 @@
       <c r="H20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="41">
         <v>110</v>
       </c>
       <c r="J20" s="3"/>
@@ -1578,7 +1579,7 @@
       <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="41">
         <v>1</v>
       </c>
       <c r="D21" s="3">
@@ -1595,9 +1596,7 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
@@ -1685,7 +1684,7 @@
       <c r="C26" s="3">
         <v>50</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="41">
         <v>90</v>
       </c>
       <c r="E26" s="3">
@@ -1709,7 +1708,7 @@
       <c r="C27" s="3">
         <v>0</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="52">
         <v>0</v>
       </c>
       <c r="E27" s="3">
@@ -1720,7 +1719,7 @@
         <v>5</v>
       </c>
       <c r="I27" s="3"/>
-      <c r="J27" s="3">
+      <c r="J27" s="52">
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -2022,9 +2021,15 @@
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="C45" s="41">
+        <v>110</v>
+      </c>
+      <c r="D45" s="3">
+        <v>120</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="2" t="s">
         <v>4</v>
@@ -2038,20 +2043,14 @@
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="13">
-        <v>1</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="13">
+      <c r="I46" s="41">
         <v>1</v>
       </c>
       <c r="J46" s="3">
@@ -2123,7 +2122,7 @@
       <c r="C50" s="3">
         <v>50</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="99">
         <v>90</v>
       </c>
       <c r="E50" s="3"/>
@@ -2176,7 +2175,7 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="52">
         <v>0</v>
       </c>
       <c r="K52" s="3">
@@ -2469,9 +2468,7 @@
       <c r="J71" s="3">
         <v>120</v>
       </c>
-      <c r="K71" s="3">
-        <v>1</v>
-      </c>
+      <c r="K71" s="3"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
@@ -2487,11 +2484,13 @@
       <c r="H72" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I72" s="13">
+      <c r="I72" s="41">
         <v>110</v>
       </c>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
@@ -2615,7 +2614,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3">
+      <c r="D79" s="52">
         <v>0</v>
       </c>
       <c r="E79" s="3">
@@ -2797,10 +2796,10 @@
       <c r="B103" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="82"/>
       <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -2941,11 +2940,11 @@
       <c r="B113" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="13">
+      <c r="C113" s="41">
         <v>110</v>
       </c>
       <c r="D113" s="3"/>
-      <c r="E113" s="13">
+      <c r="E113" s="41">
         <v>110</v>
       </c>
       <c r="F113" s="3"/>
@@ -3018,7 +3017,7 @@
       <c r="E118" s="3">
         <v>0</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="7">
         <v>90</v>
       </c>
       <c r="G118" s="3"/>
@@ -3044,15 +3043,15 @@
         <v>5</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3">
+      <c r="D120" s="52">
         <v>0</v>
       </c>
       <c r="E120" s="3"/>
-      <c r="F120" s="3">
+      <c r="F120" s="52">
         <v>0</v>
       </c>
       <c r="G120" s="3">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3113,10 +3112,10 @@
       <c r="B129" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="82"/>
       <c r="E129" s="6"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3255,11 +3254,11 @@
       <c r="B139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="13">
+      <c r="C139" s="41">
         <v>110</v>
       </c>
       <c r="D139" s="3"/>
-      <c r="E139" s="13">
+      <c r="E139" s="41">
         <v>110</v>
       </c>
       <c r="F139" s="3"/>
@@ -3330,7 +3329,7 @@
       <c r="E144" s="3">
         <v>0</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="7">
         <v>90</v>
       </c>
       <c r="G144" s="3"/>
@@ -3358,8 +3357,12 @@
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
+      <c r="F146" s="52">
+        <v>0</v>
+      </c>
+      <c r="G146" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
@@ -3372,7 +3375,7 @@
       <c r="F147" s="3"/>
       <c r="G147" s="3" t="b">
         <f>COUNTIF(G144:G146,"")&lt;3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -3559,11 +3562,11 @@
       <c r="B165" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C165" s="13">
+      <c r="C165" s="41">
         <v>110</v>
       </c>
       <c r="D165" s="3"/>
-      <c r="E165" s="13">
+      <c r="E165" s="41">
         <v>110</v>
       </c>
       <c r="F165" s="3"/>
@@ -3634,7 +3637,7 @@
       <c r="E170" s="3">
         <v>0</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F170" s="7">
         <v>90</v>
       </c>
       <c r="G170" s="3"/>
@@ -3662,9 +3665,7 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-      <c r="F172" s="3">
-        <v>0</v>
-      </c>
+      <c r="F172" s="31"/>
       <c r="G172" s="3"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -3876,20 +3877,20 @@
         <v>110</v>
       </c>
       <c r="D207" s="3"/>
-      <c r="E207" s="3">
-        <v>1</v>
-      </c>
+      <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C208" s="13">
+      <c r="C208" s="41">
         <v>110</v>
       </c>
       <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
@@ -4005,7 +4006,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C103:D103"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:K10"/>

--- a/reports/D2/DataDrivenExample.xlsx
+++ b/reports/D2/DataDrivenExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/FAQAS/reports/D2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D0352-C4F6-E546-B33C-1DF0C4CD26E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B9808-FD52-204E-88B3-4F7A113759D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6320" yWindow="-26960" windowWidth="40340" windowHeight="22980" activeTab="1" xr2:uid="{35B636A8-7F45-8B42-9F5B-45805FC800DB}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17720" activeTab="4" xr2:uid="{35B636A8-7F45-8B42-9F5B-45805FC800DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="105">
   <si>
     <t>temp_1</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Test13</t>
-  </si>
-  <si>
-    <t>Test14</t>
   </si>
   <si>
     <t>PASS</t>
@@ -1191,7 +1188,7 @@
   </sheetPr>
   <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A150" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -1512,7 +1509,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
@@ -1521,7 +1518,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -1640,7 +1637,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
@@ -1649,7 +1646,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -1980,7 +1977,7 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="2" t="s">
@@ -1989,7 +1986,7 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2102,7 +2099,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="2" t="s">
@@ -2111,7 +2108,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -2434,7 +2431,7 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="2" t="s">
@@ -2443,7 +2440,7 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
@@ -2552,7 +2549,7 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="2" t="s">
@@ -2561,7 +2558,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
@@ -2913,7 +2910,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -3000,7 +2997,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,7 +3224,7 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -3312,7 +3309,7 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -3535,7 +3532,7 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -3620,7 +3617,7 @@
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -3771,7 +3768,7 @@
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C197" s="78"/>
       <c r="D197" s="78"/>
@@ -3865,7 +3862,7 @@
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -3928,7 +3925,7 @@
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -4104,7 +4101,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4412,7 +4409,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="2" t="s">
@@ -4421,7 +4418,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4455,14 +4452,20 @@
       <c r="B18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="41">
+        <v>110</v>
+      </c>
+      <c r="D18" s="3">
+        <v>120</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="41">
         <v>110</v>
       </c>
       <c r="J18" s="3"/>
@@ -4473,15 +4476,9 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="13">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
         <v>5</v>
@@ -4532,7 +4529,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="2" t="s">
@@ -4541,7 +4538,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4594,7 +4591,7 @@
       <c r="C25" s="3">
         <v>0</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="52">
         <v>0</v>
       </c>
       <c r="E25" s="3">
@@ -4604,9 +4601,7 @@
       <c r="H25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
@@ -4811,7 +4806,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4838,11 +4833,11 @@
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="41">
         <v>110</v>
       </c>
       <c r="D45" s="3"/>
-      <c r="E45" s="13">
+      <c r="E45" s="41">
         <v>110</v>
       </c>
       <c r="F45" s="3"/>
@@ -4858,9 +4853,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4896,7 +4889,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4998,7 +4991,7 @@
     <mergeCell ref="B10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5009,8 +5002,8 @@
   </sheetPr>
   <dimension ref="A1:S212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5158,7 +5151,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>27</v>
@@ -5194,7 +5187,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>27</v>
@@ -5272,7 +5265,7 @@
     <row r="9" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="B9" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="95"/>
       <c r="D9" s="95"/>
@@ -5334,13 +5327,13 @@
         <v>84</v>
       </c>
       <c r="P10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -5348,55 +5341,55 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="K11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="P11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -5404,55 +5397,55 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="I12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -5460,55 +5453,55 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>88</v>
-      </c>
       <c r="I13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="L13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="K13" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="Q13" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -5516,55 +5509,55 @@
         <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>88</v>
-      </c>
       <c r="F14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="H14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="R14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -5610,13 +5603,13 @@
         <v>84</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="R15" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -6051,7 +6044,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="57"/>
       <c r="C25" s="98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
@@ -6656,7 +6649,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="13" t="b">
         <v>0</v>
@@ -7085,7 +7078,7 @@
       <c r="O47" s="49">
         <v>0</v>
       </c>
-      <c r="P47" s="35">
+      <c r="P47" s="55">
         <v>0</v>
       </c>
       <c r="Q47" s="35">
@@ -7152,7 +7145,7 @@
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="13" t="b">
         <v>1</v>
@@ -7243,7 +7236,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -7643,7 +7636,7 @@
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="3" t="b">
         <v>0</v>
@@ -7739,7 +7732,7 @@
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
       <c r="B63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -8139,7 +8132,7 @@
     <row r="71" spans="1:18" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3" t="b">
         <v>0</v>
@@ -8238,7 +8231,7 @@
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -8278,37 +8271,37 @@
         <v>12</v>
       </c>
       <c r="H75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J75" s="32">
         <v>12</v>
       </c>
       <c r="K75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L75" s="28">
         <v>12</v>
       </c>
       <c r="M75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O75" s="32">
         <v>12</v>
       </c>
       <c r="P75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R75" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
@@ -8389,34 +8382,34 @@
         <v>12</v>
       </c>
       <c r="I77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K77" s="32">
         <v>12</v>
       </c>
       <c r="L77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M77" s="28">
         <v>12</v>
       </c>
       <c r="N77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P77" s="32">
         <v>12</v>
       </c>
       <c r="Q77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R77" s="40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
@@ -8638,7 +8631,7 @@
     <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C82" s="3" t="b">
         <v>1</v>
@@ -8737,7 +8730,7 @@
     <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -9137,7 +9130,7 @@
     <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="3" t="b">
         <v>1</v>
@@ -9194,7 +9187,7 @@
         <v>21</v>
       </c>
       <c r="C94" s="96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="96"/>
       <c r="E94" s="96"/>
@@ -9215,7 +9208,7 @@
     <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="19"/>
       <c r="D95" s="19" t="s">
@@ -9400,7 +9393,7 @@
         <v>55</v>
       </c>
       <c r="C104" s="89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="90"/>
       <c r="E104" s="90"/>
@@ -9421,7 +9414,7 @@
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C105" s="87"/>
       <c r="D105" s="87"/>
@@ -9470,22 +9463,22 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G107" s="24"/>
       <c r="H107" s="25"/>
@@ -9505,19 +9498,19 @@
         <v>70</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D108" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E108" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="E108" s="48" t="s">
-        <v>88</v>
-      </c>
       <c r="F108" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G108" s="24"/>
       <c r="H108" s="25"/>
@@ -9584,7 +9577,7 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>0</v>
@@ -9762,7 +9755,7 @@
       <c r="A117" s="21"/>
       <c r="B117" s="57"/>
       <c r="C117" s="66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
@@ -10067,7 +10060,7 @@
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C128" s="13" t="b">
         <v>0</v>
@@ -10314,7 +10307,7 @@
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C137" s="13" t="b">
         <v>1</v>
@@ -10387,7 +10380,7 @@
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -10559,7 +10552,7 @@
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C146" s="3" t="b">
         <v>0</v>
@@ -10592,7 +10585,7 @@
         <v>21</v>
       </c>
       <c r="C147" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D147" s="81"/>
       <c r="E147" s="81"/>
@@ -10633,7 +10626,7 @@
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -10805,7 +10798,7 @@
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C155" s="3" t="b">
         <v>1</v>
@@ -10838,7 +10831,7 @@
         <v>21</v>
       </c>
       <c r="C156" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D156" s="81"/>
       <c r="E156" s="81"/>
@@ -10879,7 +10872,7 @@
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -11051,7 +11044,7 @@
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C164" s="3" t="b">
         <v>1</v>
@@ -11084,7 +11077,7 @@
         <v>21</v>
       </c>
       <c r="C165" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165" s="81"/>
       <c r="E165" s="81"/>
@@ -11125,7 +11118,7 @@
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="43"/>
       <c r="B167" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -11297,7 +11290,7 @@
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C173" s="3" t="b">
         <v>1</v>
@@ -11330,7 +11323,7 @@
         <v>21</v>
       </c>
       <c r="C174" s="80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D174" s="81"/>
       <c r="E174" s="81"/>
@@ -11351,7 +11344,7 @@
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C175" s="19"/>
       <c r="D175" s="19" t="s">

--- a/reports/D2/DataDrivenExample.xlsx
+++ b/reports/D2/DataDrivenExample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabrizio.pastore/SVV-GIT/FAQAS/reports/D2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48B9808-FD52-204E-88B3-4F7A113759D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CF8C4A-EE82-714E-BDDD-92B5C5170F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17720" activeTab="4" xr2:uid="{35B636A8-7F45-8B42-9F5B-45805FC800DB}"/>
+    <workbookView xWindow="-6320" yWindow="-26960" windowWidth="40340" windowHeight="22980" activeTab="3" xr2:uid="{35B636A8-7F45-8B42-9F5B-45805FC800DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1188,8 +1188,8 @@
   </sheetPr>
   <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="L161" sqref="L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1827,10 +1827,10 @@
       <c r="H35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="I35" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="82"/>
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
@@ -2283,11 +2283,11 @@
       <c r="H62" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="6" t="s">
+      <c r="I62" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="82"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
@@ -3419,11 +3419,11 @@
       <c r="B155" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
+      <c r="D155" s="81"/>
+      <c r="E155" s="82"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
@@ -3579,9 +3579,7 @@
       <c r="C166" s="13"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-      <c r="F166" s="3">
-        <v>1</v>
-      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="3"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -4003,9 +4001,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="I10:K10"/>
@@ -4100,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4261,10 +4262,10 @@
       <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4468,7 +4469,9 @@
       <c r="I18" s="41">
         <v>110</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>120</v>
+      </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -4476,15 +4479,23 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="47">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4570,8 +4581,12 @@
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="3">
+        <v>50</v>
+      </c>
+      <c r="D24" s="13">
+        <v>90</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="2" t="s">
@@ -4580,7 +4595,9 @@
       <c r="I24" s="3">
         <v>50</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="13">
+        <v>90</v>
+      </c>
       <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4601,8 +4618,12 @@
       <c r="H25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -4682,7 +4703,7 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
@@ -4693,10 +4714,10 @@
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="82"/>
       <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4836,11 +4857,15 @@
       <c r="C45" s="41">
         <v>110</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3">
+        <v>120</v>
+      </c>
       <c r="E45" s="41">
         <v>110</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3">
+        <v>120</v>
+      </c>
       <c r="G45" s="3">
         <v>1.3</v>
       </c>
@@ -4850,10 +4875,18 @@
       <c r="B46" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="C46" s="13">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4906,7 +4939,7 @@
       <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="7">
         <v>90</v>
       </c>
       <c r="G50" s="3"/>
@@ -4919,11 +4952,15 @@
       <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51" s="13"/>
+      <c r="D51" s="13">
+        <v>90</v>
+      </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3">
+        <v>90</v>
+      </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4931,10 +4968,18 @@
       <c r="B52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4982,13 +5027,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5002,7 +5049,7 @@
   </sheetPr>
   <dimension ref="A1:S212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -12039,6 +12086,6 @@
     <mergeCell ref="C129:F129"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="25" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>